--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fn1-Plaur.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fn1-Plaur.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.75339133333333</v>
+        <v>35.73885133333334</v>
       </c>
       <c r="H2">
-        <v>122.260174</v>
+        <v>107.216554</v>
       </c>
       <c r="I2">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="J2">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>40.92730033333333</v>
+        <v>11.128273</v>
       </c>
       <c r="N2">
-        <v>122.781901</v>
+        <v>33.384819</v>
       </c>
       <c r="O2">
-        <v>0.3921621516522625</v>
+        <v>0.1975004092010595</v>
       </c>
       <c r="P2">
-        <v>0.3921621516522625</v>
+        <v>0.1975004092010595</v>
       </c>
       <c r="Q2">
-        <v>1667.926286701197</v>
+        <v>397.7116943437474</v>
       </c>
       <c r="R2">
-        <v>15011.33658031077</v>
+        <v>3579.405249093726</v>
       </c>
       <c r="S2">
-        <v>0.008339471808535915</v>
+        <v>0.003850723560933491</v>
       </c>
       <c r="T2">
-        <v>0.008339471808535915</v>
+        <v>0.003850723560933491</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.75339133333333</v>
+        <v>35.73885133333334</v>
       </c>
       <c r="H3">
-        <v>122.260174</v>
+        <v>107.216554</v>
       </c>
       <c r="I3">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="J3">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>22.794685</v>
       </c>
       <c r="O3">
-        <v>0.07280562235174674</v>
+        <v>0.1348505024127659</v>
       </c>
       <c r="P3">
-        <v>0.07280562235174674</v>
+        <v>0.1348505024127659</v>
       </c>
       <c r="Q3">
-        <v>309.6535727083545</v>
+        <v>271.5519528017211</v>
       </c>
       <c r="R3">
-        <v>2786.88215437519</v>
+        <v>2443.96757521549</v>
       </c>
       <c r="S3">
-        <v>0.00154823822887346</v>
+        <v>0.002629219903620182</v>
       </c>
       <c r="T3">
-        <v>0.00154823822887346</v>
+        <v>0.002629219903620182</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.75339133333333</v>
+        <v>35.73885133333334</v>
       </c>
       <c r="H4">
-        <v>122.260174</v>
+        <v>107.216554</v>
       </c>
       <c r="I4">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="J4">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.436425</v>
+        <v>8.642352000000001</v>
       </c>
       <c r="N4">
-        <v>19.309275</v>
+        <v>25.927056</v>
       </c>
       <c r="O4">
-        <v>0.06167331478965488</v>
+        <v>0.153381217054937</v>
       </c>
       <c r="P4">
-        <v>0.06167331478965488</v>
+        <v>0.153381217054937</v>
       </c>
       <c r="Q4">
-        <v>262.30614681265</v>
+        <v>308.8677332983361</v>
       </c>
       <c r="R4">
-        <v>2360.75532131385</v>
+        <v>2779.809599685024</v>
       </c>
       <c r="S4">
-        <v>0.001311505630669192</v>
+        <v>0.002990518696681927</v>
       </c>
       <c r="T4">
-        <v>0.001311505630669192</v>
+        <v>0.002990518696681926</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>40.75339133333333</v>
+        <v>35.73885133333334</v>
       </c>
       <c r="H5">
-        <v>122.260174</v>
+        <v>107.216554</v>
       </c>
       <c r="I5">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="J5">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>49.40125466666667</v>
+        <v>28.976716</v>
       </c>
       <c r="N5">
-        <v>148.203764</v>
+        <v>86.930148</v>
       </c>
       <c r="O5">
-        <v>0.4733589112063359</v>
+        <v>0.5142678713312377</v>
       </c>
       <c r="P5">
-        <v>0.473358911206336</v>
+        <v>0.5142678713312377</v>
       </c>
       <c r="Q5">
-        <v>2013.268663788326</v>
+        <v>1035.594545252221</v>
       </c>
       <c r="R5">
-        <v>18119.41797409494</v>
+        <v>9320.350907269993</v>
       </c>
       <c r="S5">
-        <v>0.01006615064379</v>
+        <v>0.01002683192798006</v>
       </c>
       <c r="T5">
-        <v>0.01006615064379</v>
+        <v>0.01002683192798006</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,13 +788,13 @@
         <v>1689.289306666667</v>
       </c>
       <c r="H6">
-        <v>5067.867920000001</v>
+        <v>5067.86792</v>
       </c>
       <c r="I6">
-        <v>0.8814813868902839</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="J6">
-        <v>0.8814813868902838</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>40.92730033333333</v>
+        <v>11.128273</v>
       </c>
       <c r="N6">
-        <v>122.781901</v>
+        <v>33.384819</v>
       </c>
       <c r="O6">
-        <v>0.3921621516522625</v>
+        <v>0.1975004092010595</v>
       </c>
       <c r="P6">
-        <v>0.3921621516522625</v>
+        <v>0.1975004092010595</v>
       </c>
       <c r="Q6">
-        <v>69138.0508038351</v>
+        <v>18798.87258056739</v>
       </c>
       <c r="R6">
-        <v>622242.4572345159</v>
+        <v>169189.8532251065</v>
       </c>
       <c r="S6">
-        <v>0.3456836373243142</v>
+        <v>0.1820144154534476</v>
       </c>
       <c r="T6">
-        <v>0.3456836373243142</v>
+        <v>0.1820144154534476</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,13 +850,13 @@
         <v>1689.289306666667</v>
       </c>
       <c r="H7">
-        <v>5067.867920000001</v>
+        <v>5067.86792</v>
       </c>
       <c r="I7">
-        <v>0.8814813868902839</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="J7">
-        <v>0.8814813868902838</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>22.794685</v>
       </c>
       <c r="O7">
-        <v>0.07280562235174674</v>
+        <v>0.1348505024127659</v>
       </c>
       <c r="P7">
-        <v>0.07280562235174674</v>
+        <v>0.1348505024127659</v>
       </c>
       <c r="Q7">
         <v>12835.60587311169</v>
@@ -883,10 +883,10 @@
         <v>115520.4528580052</v>
       </c>
       <c r="S7">
-        <v>0.06417680096402797</v>
+        <v>0.1242768836254727</v>
       </c>
       <c r="T7">
-        <v>0.06417680096402796</v>
+        <v>0.1242768836254727</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,13 +912,13 @@
         <v>1689.289306666667</v>
       </c>
       <c r="H8">
-        <v>5067.867920000001</v>
+        <v>5067.86792</v>
       </c>
       <c r="I8">
-        <v>0.8814813868902839</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="J8">
-        <v>0.8814813868902838</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.436425</v>
+        <v>8.642352000000001</v>
       </c>
       <c r="N8">
-        <v>19.309275</v>
+        <v>25.927056</v>
       </c>
       <c r="O8">
-        <v>0.06167331478965488</v>
+        <v>0.153381217054937</v>
       </c>
       <c r="P8">
-        <v>0.06167331478965488</v>
+        <v>0.153381217054937</v>
       </c>
       <c r="Q8">
-        <v>10872.983925662</v>
+        <v>14599.43281804928</v>
       </c>
       <c r="R8">
-        <v>97856.855330958</v>
+        <v>131394.8953624435</v>
       </c>
       <c r="S8">
-        <v>0.05436387905490604</v>
+        <v>0.1413546061839905</v>
       </c>
       <c r="T8">
-        <v>0.05436387905490603</v>
+        <v>0.1413546061839904</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,13 +974,13 @@
         <v>1689.289306666667</v>
       </c>
       <c r="H9">
-        <v>5067.867920000001</v>
+        <v>5067.86792</v>
       </c>
       <c r="I9">
-        <v>0.8814813868902839</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="J9">
-        <v>0.8814813868902838</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>49.40125466666667</v>
+        <v>28.976716</v>
       </c>
       <c r="N9">
-        <v>148.203764</v>
+        <v>86.930148</v>
       </c>
       <c r="O9">
-        <v>0.4733589112063359</v>
+        <v>0.5142678713312377</v>
       </c>
       <c r="P9">
-        <v>0.473358911206336</v>
+        <v>0.5142678713312377</v>
       </c>
       <c r="Q9">
-        <v>83453.01124431677</v>
+        <v>48950.0564811169</v>
       </c>
       <c r="R9">
-        <v>751077.101198851</v>
+        <v>440550.5083300521</v>
       </c>
       <c r="S9">
-        <v>0.4172570695470357</v>
+        <v>0.4739441622703328</v>
       </c>
       <c r="T9">
-        <v>0.4172570695470357</v>
+        <v>0.4739441622703328</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>85.41274733333334</v>
+        <v>93.641553</v>
       </c>
       <c r="H10">
-        <v>256.238242</v>
+        <v>280.924659</v>
       </c>
       <c r="I10">
-        <v>0.04456888863285297</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="J10">
-        <v>0.04456888863285296</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>40.92730033333333</v>
+        <v>11.128273</v>
       </c>
       <c r="N10">
-        <v>122.781901</v>
+        <v>33.384819</v>
       </c>
       <c r="O10">
-        <v>0.3921621516522625</v>
+        <v>0.1975004092010595</v>
       </c>
       <c r="P10">
-        <v>0.3921621516522625</v>
+        <v>0.1975004092010595</v>
       </c>
       <c r="Q10">
-        <v>3495.713162406449</v>
+        <v>1042.068765927969</v>
       </c>
       <c r="R10">
-        <v>31461.41846165804</v>
+        <v>9378.618893351722</v>
       </c>
       <c r="S10">
-        <v>0.01747823126300968</v>
+        <v>0.01008951661754123</v>
       </c>
       <c r="T10">
-        <v>0.01747823126300968</v>
+        <v>0.01008951661754123</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>85.41274733333334</v>
+        <v>93.641553</v>
       </c>
       <c r="H11">
-        <v>256.238242</v>
+        <v>280.924659</v>
       </c>
       <c r="I11">
-        <v>0.04456888863285297</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="J11">
-        <v>0.04456888863285296</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>22.794685</v>
       </c>
       <c r="O11">
-        <v>0.07280562235174674</v>
+        <v>0.1348505024127659</v>
       </c>
       <c r="P11">
-        <v>0.07280562235174674</v>
+        <v>0.1348505024127659</v>
       </c>
       <c r="Q11">
-        <v>648.9855568159745</v>
+        <v>711.5099011819351</v>
       </c>
       <c r="R11">
-        <v>5840.870011343771</v>
+        <v>6403.589110637416</v>
       </c>
       <c r="S11">
-        <v>0.003244865674440551</v>
+        <v>0.006888980081009809</v>
       </c>
       <c r="T11">
-        <v>0.003244865674440551</v>
+        <v>0.006888980081009809</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>85.41274733333334</v>
+        <v>93.641553</v>
       </c>
       <c r="H12">
-        <v>256.238242</v>
+        <v>280.924659</v>
       </c>
       <c r="I12">
-        <v>0.04456888863285297</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="J12">
-        <v>0.04456888863285296</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.436425</v>
+        <v>8.642352000000001</v>
       </c>
       <c r="N12">
-        <v>19.309275</v>
+        <v>25.927056</v>
       </c>
       <c r="O12">
-        <v>0.06167331478965488</v>
+        <v>0.153381217054937</v>
       </c>
       <c r="P12">
-        <v>0.06167331478965488</v>
+        <v>0.153381217054937</v>
       </c>
       <c r="Q12">
-        <v>549.75274225495</v>
+        <v>809.2832628526561</v>
       </c>
       <c r="R12">
-        <v>4947.77468029455</v>
+        <v>7283.549365673905</v>
       </c>
       <c r="S12">
-        <v>0.002748711098479012</v>
+        <v>0.007835641174388936</v>
       </c>
       <c r="T12">
-        <v>0.002748711098479012</v>
+        <v>0.007835641174388935</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>85.41274733333334</v>
+        <v>93.641553</v>
       </c>
       <c r="H13">
-        <v>256.238242</v>
+        <v>280.924659</v>
       </c>
       <c r="I13">
-        <v>0.04456888863285297</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="J13">
-        <v>0.04456888863285296</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>49.40125466666667</v>
+        <v>28.976716</v>
       </c>
       <c r="N13">
-        <v>148.203764</v>
+        <v>86.930148</v>
       </c>
       <c r="O13">
-        <v>0.4733589112063359</v>
+        <v>0.5142678713312377</v>
       </c>
       <c r="P13">
-        <v>0.473358911206336</v>
+        <v>0.5142678713312377</v>
       </c>
       <c r="Q13">
-        <v>4219.496882793655</v>
+        <v>2713.424687079948</v>
       </c>
       <c r="R13">
-        <v>37975.47194514289</v>
+        <v>24420.82218371953</v>
       </c>
       <c r="S13">
-        <v>0.02109708059692372</v>
+        <v>0.02627191637047122</v>
       </c>
       <c r="T13">
-        <v>0.02109708059692372</v>
+        <v>0.02627191637047122</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>100.9654023333333</v>
+        <v>14.34625366666667</v>
       </c>
       <c r="H14">
-        <v>302.8962069999999</v>
+        <v>43.038761</v>
       </c>
       <c r="I14">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="J14">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>40.92730033333333</v>
+        <v>11.128273</v>
       </c>
       <c r="N14">
-        <v>122.781901</v>
+        <v>33.384819</v>
       </c>
       <c r="O14">
-        <v>0.3921621516522625</v>
+        <v>0.1975004092010595</v>
       </c>
       <c r="P14">
-        <v>0.3921621516522625</v>
+        <v>0.1975004092010595</v>
       </c>
       <c r="Q14">
-        <v>4132.241344572166</v>
+        <v>159.6490273299177</v>
       </c>
       <c r="R14">
-        <v>37190.1721011495</v>
+        <v>1436.841245969259</v>
       </c>
       <c r="S14">
-        <v>0.02066081125640274</v>
+        <v>0.001545753569137145</v>
       </c>
       <c r="T14">
-        <v>0.02066081125640274</v>
+        <v>0.001545753569137145</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>100.9654023333333</v>
+        <v>14.34625366666667</v>
       </c>
       <c r="H15">
-        <v>302.8962069999999</v>
+        <v>43.038761</v>
       </c>
       <c r="I15">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="J15">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>22.794685</v>
       </c>
       <c r="O15">
-        <v>0.07280562235174674</v>
+        <v>0.1348505024127659</v>
       </c>
       <c r="P15">
-        <v>0.07280562235174674</v>
+        <v>0.1348505024127659</v>
       </c>
       <c r="Q15">
-        <v>767.1581806955327</v>
+        <v>109.0061110872539</v>
       </c>
       <c r="R15">
-        <v>6904.423626259794</v>
+        <v>981.0549997852851</v>
       </c>
       <c r="S15">
-        <v>0.003835717484404765</v>
+        <v>0.001055418802663179</v>
       </c>
       <c r="T15">
-        <v>0.003835717484404765</v>
+        <v>0.001055418802663179</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>100.9654023333333</v>
+        <v>14.34625366666667</v>
       </c>
       <c r="H16">
-        <v>302.8962069999999</v>
+        <v>43.038761</v>
       </c>
       <c r="I16">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="J16">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.436425</v>
+        <v>8.642352000000001</v>
       </c>
       <c r="N16">
-        <v>19.309275</v>
+        <v>25.927056</v>
       </c>
       <c r="O16">
-        <v>0.06167331478965488</v>
+        <v>0.153381217054937</v>
       </c>
       <c r="P16">
-        <v>0.06167331478965488</v>
+        <v>0.153381217054937</v>
       </c>
       <c r="Q16">
-        <v>649.8562397133248</v>
+        <v>123.985374068624</v>
       </c>
       <c r="R16">
-        <v>5848.706157419924</v>
+        <v>1115.868366617616</v>
       </c>
       <c r="S16">
-        <v>0.003249219005600639</v>
+        <v>0.001200450999875681</v>
       </c>
       <c r="T16">
-        <v>0.003249219005600639</v>
+        <v>0.001200450999875681</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>100.9654023333333</v>
+        <v>14.34625366666667</v>
       </c>
       <c r="H17">
-        <v>302.8962069999999</v>
+        <v>43.038761</v>
       </c>
       <c r="I17">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="J17">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>49.40125466666667</v>
+        <v>28.976716</v>
       </c>
       <c r="N17">
-        <v>148.203764</v>
+        <v>86.930148</v>
       </c>
       <c r="O17">
-        <v>0.4733589112063359</v>
+        <v>0.5142678713312377</v>
       </c>
       <c r="P17">
-        <v>0.473358911206336</v>
+        <v>0.5142678713312377</v>
       </c>
       <c r="Q17">
-        <v>4987.81755319146</v>
+        <v>415.7073181629587</v>
       </c>
       <c r="R17">
-        <v>44890.35797872314</v>
+        <v>3741.365863466628</v>
       </c>
       <c r="S17">
-        <v>0.0249386104185865</v>
+        <v>0.004024960762453744</v>
       </c>
       <c r="T17">
-        <v>0.0249386104185865</v>
+        <v>0.004024960762453744</v>
       </c>
     </row>
   </sheetData>
